--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\A_trading_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFF6587-0C2D-489A-949E-456F118C4997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8EAB88-5A67-4A19-A00B-FF0B43979DD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="5235" windowWidth="9450" windowHeight="10005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="8085" windowWidth="13860" windowHeight="10065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -26,56 +26,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>acctid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ttasset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ttliability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>af</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>secmv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sec_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sec_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sec_vol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exchange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>704mhuat_666810010091</t>
-  </si>
-  <si>
-    <t>704mhuat_666810010091</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>806mhuat_666800006472</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+  <si>
+    <t>2_m_sw_9790</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -87,19 +44,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>601818</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2419033778</t>
+    <t>AcctIDByMXZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>917_m_zxjt_3156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecurityID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecurityIDSource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongQty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918_m_huat_0118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>919_m_sw_3523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>922_m_gtja_7038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704_m_huat_0091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctIDByMXZ</t>
+  </si>
+  <si>
+    <t>NetAsset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalAsset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalLiability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvailableFund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecurityMarketValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>928_m_zx_6258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortQty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,86 +450,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2014A2-72F2-459D-8409-EBB38C0BE405}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>13278795</v>
+      </c>
+      <c r="D2">
+        <v>19009900</v>
+      </c>
+      <c r="E2">
+        <v>5731104</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>48839.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>34324615</v>
-      </c>
-      <c r="C3">
-        <v>65971598</v>
-      </c>
-      <c r="D3">
-        <v>31646983</v>
-      </c>
-      <c r="E3">
-        <v>4337732</v>
-      </c>
-      <c r="F3">
-        <v>61633866</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>15703937</v>
-      </c>
-      <c r="C4">
-        <v>15703937</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>929024</v>
-      </c>
-      <c r="F4">
-        <v>14774912</v>
+      <c r="G2">
+        <v>5702818</v>
       </c>
     </row>
   </sheetData>
@@ -516,23 +520,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -541,44 +548,154 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>3800000</v>
+      </c>
+      <c r="G2">
+        <v>23031910</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>5260000</v>
+      </c>
+      <c r="G3">
+        <v>30599370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>4862300</v>
+      </c>
+      <c r="G4">
+        <v>27117532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
-        <v>510500</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>-5432800</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2419033778</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>2600</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>17150000</v>
+      </c>
+      <c r="G5">
+        <v>98809529.790000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3378000</v>
+      </c>
+      <c r="G6">
+        <v>19247136.489999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5432800</v>
+      </c>
+      <c r="G7">
+        <v>30853356.800000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8EAB88-5A67-4A19-A00B-FF0B43979DD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935C5524-DA77-42E7-B6E3-94C671A1EE66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="8085" windowWidth="13860" windowHeight="10065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="9180" windowWidth="13860" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>2_m_sw_9790</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,14 +108,6 @@
   </si>
   <si>
     <t>928_m_zx_6258</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200605</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -450,65 +442,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2014A2-72F2-459D-8409-EBB38C0BE405}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B2">
+        <v>13278795</v>
+      </c>
       <c r="C2">
-        <v>13278795</v>
+        <v>19009900</v>
       </c>
       <c r="D2">
-        <v>19009900</v>
+        <v>5731104</v>
       </c>
       <c r="E2">
-        <v>5731104</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
         <v>5702818</v>
       </c>
     </row>
@@ -522,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -548,13 +533,13 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935C5524-DA77-42E7-B6E3-94C671A1EE66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D88C66-8720-4C0E-B014-2E47045F7935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="9180" windowWidth="13860" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="7965" windowWidth="14595" windowHeight="10065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>2_m_sw_9790</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,14 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AvailableFund</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SecurityMarketValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>928_m_zx_6258</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +108,30 @@
   </si>
   <si>
     <t>ShortQty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>922_m_gtja_0808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecurityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashEquivalent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongAmt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2014A2-72F2-459D-8409-EBB38C0BE405}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -454,10 +470,10 @@
     <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -471,15 +487,18 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B2">
         <v>13278795</v>
@@ -493,8 +512,10 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>5702818</v>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -505,10 +526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -520,9 +541,10 @@
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -533,19 +555,22 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,8 +592,11 @@
       <c r="G2">
         <v>23031910</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -590,8 +618,11 @@
       <c r="G3">
         <v>30599370</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -613,8 +644,11 @@
       <c r="G4">
         <v>27117532</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -636,8 +670,11 @@
       <c r="G5">
         <v>98809529.790000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -659,8 +696,11 @@
       <c r="G6">
         <v>19247136.489999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -681,6 +721,9 @@
       </c>
       <c r="G7">
         <v>30853356.800000001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D88C66-8720-4C0E-B014-2E47045F7935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D364CA78-5A34-4A27-8CF9-91D0E535686D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="7965" windowWidth="14595" windowHeight="10065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -613,10 +613,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5260000</v>
+        <v>8180600</v>
       </c>
       <c r="G3">
-        <v>30599370</v>
+        <v>48445197</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D364CA78-5A34-4A27-8CF9-91D0E535686D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A7B8D2-926A-4124-85D3-2C0D6C5A3069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16200" yWindow="4545" windowWidth="16200" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>2_m_sw_9790</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,19 +119,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SecurityType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CashEquivalent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LongAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +486,10 @@
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -529,7 +525,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -541,7 +537,6 @@
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -567,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -592,9 +587,6 @@
       <c r="G2">
         <v>23031910</v>
       </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -618,9 +610,6 @@
       <c r="G3">
         <v>48445197</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -644,9 +633,6 @@
       <c r="G4">
         <v>27117532</v>
       </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -670,9 +656,6 @@
       <c r="G5">
         <v>98809529.790000007</v>
       </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -696,9 +679,6 @@
       <c r="G6">
         <v>19247136.489999998</v>
       </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -721,9 +701,6 @@
       </c>
       <c r="G7">
         <v>30853356.800000001</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A7B8D2-926A-4124-85D3-2C0D6C5A3069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37A062D-E6C9-4B38-8121-8BFC79FA3897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="4545" windowWidth="16200" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16170" yWindow="16050" windowWidth="16200" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>2_m_sw_9790</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
   </si>
   <si>
     <t>ShortQty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>922_m_gtja_0808</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -454,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2014A2-72F2-459D-8409-EBB38C0BE405}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -483,13 +479,13 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -507,11 +503,6 @@
       </c>
       <c r="E2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -524,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -562,7 +553,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37A062D-E6C9-4B38-8121-8BFC79FA3897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B020B9-C6DE-4E14-98E4-30DBBEBF6CD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16170" yWindow="16050" windowWidth="16200" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>2_m_sw_9790</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,43 +87,51 @@
     <t>AcctIDByMXZ</t>
   </si>
   <si>
-    <t>NetAsset</t>
+    <t>Symbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortQty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashEquivalent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompositeLongAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApproximateNetAsset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETFLongAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETFShortAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompositeShortAmt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TotalAsset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotalLiability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>928_m_zx_6258</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Symbol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShortQty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CashEquivalent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LongAmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,59 +458,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2014A2-72F2-459D-8409-EBB38C0BE405}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <v>13278795</v>
-      </c>
-      <c r="C2">
-        <v>19009900</v>
-      </c>
-      <c r="D2">
-        <v>5731104</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -541,19 +546,19 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B020B9-C6DE-4E14-98E4-30DBBEBF6CD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A0018-5E7C-495C-B44D-9C51CB3801AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2014A2-72F2-459D-8409-EBB38C0BE405}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A0018-5E7C-495C-B44D-9C51CB3801AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79515DC0-D574-4F1D-881E-EC6401922E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15975" yWindow="10425" windowWidth="13875" windowHeight="13005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -601,10 +601,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>8180600</v>
+        <v>10190000</v>
       </c>
       <c r="G3">
-        <v>48445197</v>
+        <v>60614206</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79515DC0-D574-4F1D-881E-EC6401922E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C25E33D-A55D-4D64-A83E-9AA1982F2A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15975" yWindow="10425" windowWidth="13875" windowHeight="13005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
     <sheet name="holding" sheetId="1" r:id="rId2"/>
+    <sheet name="temp" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>2_m_sw_9790</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PosCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AcctIDByMXZ</t>
   </si>
   <si>
@@ -132,6 +129,66 @@
   </si>
   <si>
     <t>TotalAsset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>921_c_sw_9497</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>929_o_zx_9DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证小盘500指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>929_o_zx_9DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTCAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosCost_vec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnderlyingSecurityID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnderlyingSecurityIDSource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnderlyingQty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnderlyingSymbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SWAP_zx_EQSWAP5779DEF20200529-20200615 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000905空头收益互换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnderlyingStartValue_vec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,6 +196,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,9 +235,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -458,56 +519,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2014A2-72F2-459D-8409-EBB38C0BE405}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
+      <c r="B2" s="2">
+        <v>23400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -518,24 +599,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -546,22 +633,37 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,10 +683,10 @@
         <v>3800000</v>
       </c>
       <c r="G2">
-        <v>23031910</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-23031910</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -604,10 +706,10 @@
         <v>10190000</v>
       </c>
       <c r="G3">
-        <v>60614206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-60614206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -627,10 +729,10 @@
         <v>4862300</v>
       </c>
       <c r="G4">
-        <v>27117532</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-27117532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -650,10 +752,10 @@
         <v>17150000</v>
       </c>
       <c r="G5">
-        <v>98809529.790000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-98809529.790000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -673,10 +775,10 @@
         <v>3378000</v>
       </c>
       <c r="G6">
-        <v>19247136.489999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-19247136.489999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -696,7 +798,45 @@
         <v>5432800</v>
       </c>
       <c r="G7">
-        <v>30853356.800000001</v>
+        <v>-30853356.800000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8">
+        <v>-2674.7550000000001</v>
+      </c>
+      <c r="L8">
+        <v>-15000000</v>
       </c>
     </row>
   </sheetData>
@@ -704,4 +844,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EFE95A-AF69-412C-84C2-B08BB41E5287}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C25E33D-A55D-4D64-A83E-9AA1982F2A82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B81700-F4B4-405C-912C-8FCDC15B926B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14955" yWindow="6615" windowWidth="14205" windowHeight="17250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>2_m_sw_9790</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>UnderlyingStartValue_vec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiabilityStartValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InterestRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DatedDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,10 +611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -614,15 +626,18 @@
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -645,25 +660,34 @@
         <v>32</v>
       </c>
       <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +710,7 @@
         <v>-23031910</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -709,7 +733,7 @@
         <v>-60614206</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -732,7 +756,7 @@
         <v>-27117532</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -755,7 +779,7 @@
         <v>-98809529.790000007</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -778,7 +802,7 @@
         <v>-19247136.489999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -801,7 +825,7 @@
         <v>-30853356.800000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -823,19 +847,19 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>29</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>-2674.7550000000001</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>-15000000</v>
       </c>
     </row>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B81700-F4B4-405C-912C-8FCDC15B926B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0700525E-6C1F-4A4F-B5F7-7F0CE6384066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14955" yWindow="6615" windowWidth="14205" windowHeight="17250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>2_m_sw_9790</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,15 +192,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LiabilityStartValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InterestRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DatedDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiabilityQty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiabilityAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiabilityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200615</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +550,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -611,10 +627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -623,21 +639,23 @@
     <col min="2" max="2" width="45.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -651,43 +669,49 @@
         <v>14</v>
       </c>
       <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,17 +724,29 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3800000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-23031910</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>3800000</v>
+      </c>
+      <c r="K2">
+        <v>0.09</v>
+      </c>
+      <c r="L2" s="1">
+        <v>20200511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -723,17 +759,29 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10190000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-60614206</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>10190000</v>
+      </c>
+      <c r="K3">
+        <v>0.09</v>
+      </c>
+      <c r="L3" s="1">
+        <v>20200511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -746,17 +794,29 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4862300</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-27117532</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>4862300</v>
+      </c>
+      <c r="K4">
+        <v>0.09</v>
+      </c>
+      <c r="L4" s="1">
+        <v>20200511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -769,17 +829,29 @@
       <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>17150000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-98809529.790000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>17150000</v>
+      </c>
+      <c r="K5">
+        <v>0.09</v>
+      </c>
+      <c r="L5" s="1">
+        <v>20200511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -792,17 +864,29 @@
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3378000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-19247136.489999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>3378000</v>
+      </c>
+      <c r="K6">
+        <v>0.09</v>
+      </c>
+      <c r="L6" s="1">
+        <v>20200511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -815,17 +899,29 @@
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5432800</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-30853356.800000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>5432800</v>
+      </c>
+      <c r="K7">
+        <v>0.09</v>
+      </c>
+      <c r="L7" s="1">
+        <v>20200511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -838,28 +934,31 @@
       <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>3</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>29</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>-2674.7550000000001</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>-15000000</v>
       </c>
     </row>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0700525E-6C1F-4A4F-B5F7-7F0CE6384066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C7359D-8CC7-4DC9-8874-2B1B4956061A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14955" yWindow="6615" windowWidth="14205" windowHeight="17250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="3900" windowWidth="14205" windowHeight="17250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
     <sheet name="holding" sheetId="1" r:id="rId2"/>
-    <sheet name="temp" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>2_m_sw_9790</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +216,10 @@
   </si>
   <si>
     <t>20200615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707_m_zxjt_2313</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,10 +266,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -547,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2014A2-72F2-459D-8409-EBB38C0BE405}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,6 +623,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -629,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -967,19 +979,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EFE95A-AF69-412C-84C2-B08BB41E5287}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C7359D-8CC7-4DC9-8874-2B1B4956061A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0900A4D8-7AAB-4907-9846-249BC1FCCF1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="3900" windowWidth="14205" windowHeight="17250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14760" yWindow="5790" windowWidth="28830" windowHeight="17250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2014A2-72F2-459D-8409-EBB38C0BE405}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0900A4D8-7AAB-4907-9846-249BC1FCCF1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF0EC74-7472-4B3D-B7EB-49896EA1BE69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14760" yWindow="5790" windowWidth="28830" windowHeight="17250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14940" yWindow="5490" windowWidth="13890" windowHeight="17250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>2_m_sw_9790</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,26 @@
   </si>
   <si>
     <t>707_m_zxjt_2313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_zx_EQSWAP5779DEF20200529-20200624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,7 +679,7 @@
     <col min="10" max="10" width="10.375" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
@@ -704,7 +724,7 @@
       <c r="L1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N1" t="s">
@@ -972,6 +992,47 @@
       </c>
       <c r="Q8">
         <v>-15000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9">
+        <v>-3454.7744118700002</v>
+      </c>
+      <c r="Q9">
+        <v>-20000000</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,29 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF0EC74-7472-4B3D-B7EB-49896EA1BE69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A87F3F-45B9-432E-97E0-81CD2788A2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14940" yWindow="5490" windowWidth="13890" windowHeight="17250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
     <sheet name="holding" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
-  <si>
-    <t>2_m_sw_9790</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +244,90 @@
   </si>
   <si>
     <t>SSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_m_sw_3455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC2009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC2009空头收益互换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFFEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证500期货2009合约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_20200629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>913_o_huat_20200629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapitalDebt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>906_m_gtja_6560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方中证500ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>913_o_huat_20200629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_20200630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC2009空头收益互换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200630</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,8 +335,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -286,11 +375,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -571,84 +661,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2014A2-72F2-459D-8409-EBB38C0BE405}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A3:C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B2" s="2">
         <v>23400</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="3">
         <v>5000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>73560000</v>
       </c>
     </row>
   </sheetData>
@@ -659,15 +764,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
@@ -681,7 +786,7 @@
     <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.25" bestFit="1" customWidth="1"/>
@@ -689,75 +794,75 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -780,19 +885,19 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -815,19 +920,19 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -850,19 +955,19 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -885,19 +990,19 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -920,19 +1025,19 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -955,16 +1060,16 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -976,16 +1081,16 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
         <v>28</v>
-      </c>
-      <c r="N8" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" t="s">
-        <v>29</v>
       </c>
       <c r="P8">
         <v>-2674.7550000000001</v>
@@ -996,16 +1101,16 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1017,22 +1122,139 @@
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" t="s">
         <v>52</v>
       </c>
-      <c r="N9" t="s">
-        <v>53</v>
-      </c>
       <c r="O9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P9">
         <v>-3454.7744118700002</v>
       </c>
       <c r="Q9">
         <v>-20000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10">
+        <v>-100</v>
+      </c>
+      <c r="Q10">
+        <v>-111456000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11">
+        <v>-100</v>
+      </c>
+      <c r="Q11">
+        <v>-113023400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>3500000</v>
+      </c>
+      <c r="H12">
+        <v>22413696</v>
+      </c>
+      <c r="I12">
+        <v>3500000</v>
+      </c>
+      <c r="K12">
+        <v>0.09</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A87F3F-45B9-432E-97E0-81CD2788A2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE62775-38C3-4FA5-9B37-29E5253024E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="1170" windowWidth="15255" windowHeight="15735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
   </si>
   <si>
     <t>922_m_gtja_7038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>704_m_huat_0091</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -685,45 +681,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2">
         <v>23400</v>
@@ -731,7 +727,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -739,7 +735,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="3">
         <v>5000000</v>
@@ -747,7 +743,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -764,10 +760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,54 +799,54 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -862,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -897,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -932,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -967,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1002,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1025,51 +1021,57 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>5432800</v>
-      </c>
-      <c r="H7">
-        <v>-30853356.800000001</v>
-      </c>
-      <c r="I7">
-        <v>5432800</v>
-      </c>
-      <c r="K7">
-        <v>0.09</v>
-      </c>
-      <c r="L7" s="1">
-        <v>20200511</v>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7">
+        <v>-2674.7550000000001</v>
+      </c>
+      <c r="Q7">
+        <v>-15000000</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1081,36 +1083,36 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" t="s">
-        <v>28</v>
-      </c>
       <c r="P8">
-        <v>-2674.7550000000001</v>
+        <v>-3454.7744118700002</v>
       </c>
       <c r="Q8">
-        <v>-15000000</v>
+        <v>-20000000</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1122,36 +1124,36 @@
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O9" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="P9">
-        <v>-3454.7744118700002</v>
+        <v>-100</v>
       </c>
       <c r="Q9">
-        <v>-20000000</v>
+        <v>-111456000</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1163,98 +1165,57 @@
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>58</v>
-      </c>
-      <c r="O10" t="s">
-        <v>59</v>
       </c>
       <c r="P10">
         <v>-100</v>
       </c>
       <c r="Q10">
-        <v>-111456000</v>
+        <v>-113023400</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3500000</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>22413696</v>
+      </c>
+      <c r="I11">
+        <v>3500000</v>
+      </c>
+      <c r="K11">
+        <v>0.09</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11">
-        <v>-100</v>
-      </c>
-      <c r="Q11">
-        <v>-113023400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
         <v>67</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>3500000</v>
-      </c>
-      <c r="H12">
-        <v>22413696</v>
-      </c>
-      <c r="I12">
-        <v>3500000</v>
-      </c>
-      <c r="K12">
-        <v>0.09</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE62775-38C3-4FA5-9B37-29E5253024E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F674FDD9-858E-4880-A3DD-06515E623A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="1170" windowWidth="15255" windowHeight="15735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-645" yWindow="8205" windowWidth="15255" windowHeight="15735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -155,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PosCost_vec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UnderlyingSecurityID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,6 +320,10 @@
   </si>
   <si>
     <t>20200630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashFromShortSelling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +702,7 @@
         <v>23</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>21</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3">
         <v>5000000</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -775,7 +775,7 @@
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
@@ -802,7 +802,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -811,34 +811,34 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
       <c r="Q1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R1" t="s">
         <v>14</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>3800000</v>
       </c>
       <c r="H2">
-        <v>-23031910</v>
+        <v>23031910</v>
       </c>
       <c r="I2">
         <v>3800000</v>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>10190000</v>
       </c>
       <c r="H3">
-        <v>-60614206</v>
+        <v>60614206</v>
       </c>
       <c r="I3">
         <v>10190000</v>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>4862300</v>
       </c>
       <c r="H4">
-        <v>-27117532</v>
+        <v>27117532</v>
       </c>
       <c r="I4">
         <v>4862300</v>
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>17150000</v>
       </c>
       <c r="H5">
-        <v>-98809529.790000007</v>
+        <v>98809529.790000007</v>
       </c>
       <c r="I5">
         <v>17150000</v>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>3378000</v>
       </c>
       <c r="H6">
-        <v>-19247136.489999998</v>
+        <v>19247136.489999998</v>
       </c>
       <c r="I6">
         <v>3378000</v>
@@ -1024,13 +1024,13 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>26</v>
@@ -1065,13 +1065,13 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1083,13 +1083,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" t="s">
         <v>50</v>
-      </c>
-      <c r="N8" t="s">
-        <v>51</v>
       </c>
       <c r="O8" t="s">
         <v>27</v>
@@ -1103,16 +1103,16 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1124,16 +1124,16 @@
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>57</v>
-      </c>
-      <c r="O9" t="s">
-        <v>58</v>
       </c>
       <c r="P9">
         <v>-100</v>
@@ -1144,16 +1144,16 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
         <v>69</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>71</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1165,16 +1165,16 @@
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" t="s">
         <v>57</v>
-      </c>
-      <c r="O10" t="s">
-        <v>58</v>
       </c>
       <c r="P10">
         <v>-100</v>
@@ -1185,19 +1185,19 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0.09</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F674FDD9-858E-4880-A3DD-06515E623A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CE9FC2-0846-4478-81BD-A5F8AECC157A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-645" yWindow="8205" windowWidth="15255" windowHeight="15735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14715" yWindow="8955" windowWidth="13665" windowHeight="15735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -660,7 +660,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>73560000</v>
+        <v>146910000</v>
       </c>
     </row>
   </sheetData>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1004,13 +1004,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3378000</v>
+        <v>6058000</v>
       </c>
       <c r="H6">
-        <v>19247136.489999998</v>
+        <v>36884369</v>
       </c>
       <c r="I6">
-        <v>3378000</v>
+        <v>6058000</v>
       </c>
       <c r="K6">
         <v>0.09</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3500000</v>
+        <v>2770400</v>
       </c>
       <c r="H11">
-        <v>22413696</v>
+        <v>19229346</v>
       </c>
       <c r="I11">
-        <v>3500000</v>
+        <v>2770400</v>
       </c>
       <c r="K11">
         <v>0.09</v>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CE9FC2-0846-4478-81BD-A5F8AECC157A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A396F5F-CBAF-4D17-BCF7-1E43284AAD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14715" yWindow="8955" windowWidth="13665" windowHeight="15735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15540" yWindow="2100" windowWidth="15165" windowHeight="20760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
     <sheet name="holding" sheetId="1" r:id="rId2"/>
+    <sheet name="dwitems" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +325,178 @@
   </si>
   <si>
     <t>CashFromShortSelling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_20200707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrdCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CapitalSource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeDateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpectedDWDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNAVDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shares</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWItemsID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200710T125210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200715</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200710T134320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200714</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200710T140328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200710T150953</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200710T151726</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200710T163308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200710T164647</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>923</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200710T173413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200713</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,12 +544,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -660,7 +835,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -749,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>146910000</v>
+        <v>231910000</v>
       </c>
     </row>
   </sheetData>
@@ -760,10 +935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1185,37 +1360,319 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11">
+        <v>-100</v>
+      </c>
+      <c r="Q11">
+        <v>-128700000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>2770400</v>
-      </c>
-      <c r="H11">
-        <v>19229346</v>
-      </c>
-      <c r="I11">
-        <v>2770400</v>
-      </c>
-      <c r="K11">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>3577000</v>
+      </c>
+      <c r="H12">
+        <v>23305796</v>
+      </c>
+      <c r="I12">
+        <v>3577000</v>
+      </c>
+      <c r="K12">
         <v>0.09</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2">
+        <v>6000000</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3">
+        <v>8970000</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4">
+        <v>12000000</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5">
+        <v>-3060593.78</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6">
+        <v>9000000</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7">
+        <v>500000</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9">
+        <v>4339428.0999999996</v>
+      </c>
+      <c r="H9">
+        <v>508240.76</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A396F5F-CBAF-4D17-BCF7-1E43284AAD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D6EF5D-8C5B-4D93-8684-136BFB50BD88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15540" yWindow="2100" windowWidth="15165" windowHeight="20760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15030" yWindow="1170" windowWidth="14460" windowHeight="20760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="120">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,6 +497,22 @@
   </si>
   <si>
     <t>20200713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_202007013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC2008空头收益互换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证500期货2008合约</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,10 +951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1401,36 +1417,77 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12">
+        <v>-65</v>
+      </c>
+      <c r="Q12">
+        <v>-87665630</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>64</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>65</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>3577000</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>23305796</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>3577000</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>0.09</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1445,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D6EF5D-8C5B-4D93-8684-136BFB50BD88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACC6A62-4799-46D4-827C-118AE5779622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15030" yWindow="1170" windowWidth="14460" windowHeight="20760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="10020" windowWidth="14985" windowHeight="14835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="120">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>918_m_huat_0118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>919_m_sw_3523</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -513,6 +509,10 @@
   </si>
   <si>
     <t>中证500期货2008合约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200611</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,7 +851,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -872,45 +872,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>23400</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="3">
         <v>5000000</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -946,15 +946,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -990,54 +991,54 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1049,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1084,25 +1085,25 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>10190000</v>
+        <v>7012100</v>
       </c>
       <c r="H3">
-        <v>60614206</v>
+        <v>45582797</v>
       </c>
       <c r="I3">
-        <v>10190000</v>
+        <v>7012100</v>
       </c>
       <c r="K3">
         <v>0.09</v>
       </c>
-      <c r="L3" s="1">
-        <v>20200511</v>
+      <c r="L3" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -1119,19 +1120,19 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4862300</v>
+        <v>14350000</v>
       </c>
       <c r="H4">
-        <v>27117532</v>
+        <v>98809529.790000007</v>
       </c>
       <c r="I4">
-        <v>4862300</v>
+        <v>14350000</v>
       </c>
       <c r="K4">
         <v>0.09</v>
@@ -1154,19 +1155,19 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>17150000</v>
+        <v>6058000</v>
       </c>
       <c r="H5">
-        <v>98809529.790000007</v>
+        <v>36884369</v>
       </c>
       <c r="I5">
-        <v>17150000</v>
+        <v>6058000</v>
       </c>
       <c r="K5">
         <v>0.09</v>
@@ -1177,51 +1178,57 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>6058000</v>
-      </c>
-      <c r="H6">
-        <v>36884369</v>
-      </c>
-      <c r="I6">
-        <v>6058000</v>
-      </c>
-      <c r="K6">
-        <v>0.09</v>
-      </c>
-      <c r="L6" s="1">
-        <v>20200511</v>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6">
+        <v>-2674.7550000000001</v>
+      </c>
+      <c r="Q6">
+        <v>-15000000</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1233,36 +1240,36 @@
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
       <c r="P7">
-        <v>-2674.7550000000001</v>
+        <v>-3454.7744118700002</v>
       </c>
       <c r="Q7">
-        <v>-15000000</v>
+        <v>-20000000</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1274,36 +1281,36 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O8" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="P8">
-        <v>-3454.7744118700002</v>
+        <v>-100</v>
       </c>
       <c r="Q8">
-        <v>-20000000</v>
+        <v>-111456000</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1315,36 +1322,36 @@
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>56</v>
-      </c>
-      <c r="O9" t="s">
-        <v>57</v>
       </c>
       <c r="P9">
         <v>-100</v>
       </c>
       <c r="Q9">
-        <v>-111456000</v>
+        <v>-113023400</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1356,36 +1363,36 @@
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" t="s">
         <v>56</v>
-      </c>
-      <c r="O10" t="s">
-        <v>57</v>
       </c>
       <c r="P10">
         <v>-100</v>
       </c>
       <c r="Q10">
-        <v>-113023400</v>
+        <v>-128700000</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1397,98 +1404,57 @@
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O11" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="P11">
-        <v>-100</v>
+        <v>-65</v>
       </c>
       <c r="Q11">
-        <v>-128700000</v>
+        <v>-87665630</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3577000</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>23305796</v>
+      </c>
+      <c r="I12">
+        <v>3577000</v>
+      </c>
+      <c r="K12">
+        <v>0.09</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12" t="s">
-        <v>119</v>
-      </c>
-      <c r="P12">
-        <v>-65</v>
-      </c>
-      <c r="Q12">
-        <v>-87665630</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" t="s">
         <v>65</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>3577000</v>
-      </c>
-      <c r="H13">
-        <v>23305796</v>
-      </c>
-      <c r="I13">
-        <v>3577000</v>
-      </c>
-      <c r="K13">
-        <v>0.09</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1524,183 +1490,183 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="G2">
         <v>6000000</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="G3">
         <v>8970000</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="G4">
         <v>12000000</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5">
         <v>-3060593.78</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="G6">
         <v>9000000</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="G7">
         <v>500000</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G8">
         <v>1000000</v>
@@ -1708,19 +1674,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="G9">
         <v>4339428.0999999996</v>
@@ -1729,7 +1695,7 @@
         <v>508240.76</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACC6A62-4799-46D4-827C-118AE5779622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE06C40E-48E6-47B9-BC52-734C1E79CC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="10020" windowWidth="14985" windowHeight="14835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="122">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,6 +513,14 @@
   </si>
   <si>
     <t>20200611</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWedAmt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -954,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1091,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7012100</v>
+        <v>7090000</v>
       </c>
       <c r="H3">
-        <v>45582797</v>
+        <v>46804797</v>
       </c>
       <c r="I3">
-        <v>7012100</v>
+        <v>7090000</v>
       </c>
       <c r="K3">
         <v>0.09</v>
@@ -1126,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>14350000</v>
+        <v>17150000</v>
       </c>
       <c r="H4">
-        <v>98809529.790000007</v>
+        <v>110786790</v>
       </c>
       <c r="I4">
         <v>14350000</v>
@@ -1466,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1479,7 +1487,7 @@
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.625" style="1" bestFit="1" customWidth="1"/>
@@ -1488,7 +1496,7 @@
     <col min="12" max="12" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>82</v>
       </c>
@@ -1516,8 +1524,14 @@
       <c r="I1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -1539,8 +1553,11 @@
       <c r="I2" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>88</v>
       </c>
@@ -1562,8 +1579,11 @@
       <c r="I3" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>93</v>
       </c>
@@ -1585,8 +1605,11 @@
       <c r="I4" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -1608,8 +1631,11 @@
       <c r="I5" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
@@ -1631,8 +1657,11 @@
       <c r="I6" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>102</v>
       </c>
@@ -1654,8 +1683,11 @@
       <c r="I7" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
@@ -1671,8 +1703,11 @@
       <c r="G8">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>112</v>
       </c>
@@ -1696,6 +1731,9 @@
       </c>
       <c r="I9" s="1" t="s">
         <v>114</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE06C40E-48E6-47B9-BC52-734C1E79CC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60E84E3-9BE0-46D0-9046-7D4B041377D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24000" yWindow="7005" windowWidth="23955" windowHeight="13485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="123">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UNAVDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Amt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -521,6 +517,14 @@
   </si>
   <si>
     <t>DWedAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNAVConfirmationDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectiveDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1111,7 +1115,7 @@
         <v>0.09</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -1394,13 +1398,13 @@
         <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1412,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>52</v>
@@ -1421,7 +1425,7 @@
         <v>55</v>
       </c>
       <c r="O11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P11">
         <v>-65</v>
@@ -1474,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1486,19 +1490,20 @@
     <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>76</v>
@@ -1510,229 +1515,232 @@
         <v>78</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2">
+        <v>6000000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3">
+        <v>8970000</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F4">
+        <v>12000000</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5">
+        <v>-3060593.78</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G2">
-        <v>6000000</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6">
+        <v>9000000</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3">
-        <v>8970000</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4">
-        <v>12000000</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5">
-        <v>-3060593.78</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6">
-        <v>9000000</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="F7">
+        <v>500000</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8">
+        <v>1000000</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7">
-        <v>500000</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8">
-        <v>1000000</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9">
+        <v>4339428.0999999996</v>
+      </c>
+      <c r="G9">
+        <v>508240.76</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9">
-        <v>4339428.0999999996</v>
-      </c>
-      <c r="H9">
-        <v>508240.76</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9">
+      <c r="K9">
         <v>0</v>
       </c>
     </row>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60E84E3-9BE0-46D0-9046-7D4B041377D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7CD6D4-70B6-49E8-B874-5FC4D6769482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24000" yWindow="7005" windowWidth="23955" windowHeight="13485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,11 +364,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200710T125210</t>
+    <t>SWAP_huat_202007013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC2008空头收益互换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证500期货2008合约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200611</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWedAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNAVConfirmationDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectiveDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202007270001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200727T152246</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200727T110549</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>929</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -376,51 +424,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200710</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200715</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200710T134320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200714</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>630</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200710T140328</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>918</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200710T150953</t>
+    <t>20200727</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200729</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202007270002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200727T112845</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>917</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -428,103 +448,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000000005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200710T151726</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>705</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200709</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200710T163308</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200710T164647</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>923</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200710T173413</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWAP_huat_202007013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IC2008空头收益互换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中证500期货2008合约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200611</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DWedAmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNAVConfirmationDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectiveDate</t>
+    <t>20200730</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202007270004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_zx_EQSWAP5779DEF20200529-20200728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000905空头收益互换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,10 +920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1115,7 +1071,7 @@
         <v>0.09</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -1144,7 +1100,7 @@
         <v>110786790</v>
       </c>
       <c r="I4">
-        <v>14350000</v>
+        <v>17150000</v>
       </c>
       <c r="K4">
         <v>0.09</v>
@@ -1272,16 +1228,16 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1293,36 +1249,36 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="P8">
-        <v>-100</v>
+        <v>-7144.2860000600003</v>
       </c>
       <c r="Q8">
-        <v>-111456000</v>
+        <v>-45000000</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1334,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>52</v>
@@ -1349,21 +1305,21 @@
         <v>-100</v>
       </c>
       <c r="Q9">
-        <v>-113023400</v>
+        <v>-111456000</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1375,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>52</v>
@@ -1390,7 +1346,7 @@
         <v>-100</v>
       </c>
       <c r="Q10">
-        <v>-128700000</v>
+        <v>-113023400</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1398,13 +1354,13 @@
         <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1416,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>52</v>
@@ -1425,47 +1381,88 @@
         <v>55</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="P11">
-        <v>-65</v>
+        <v>-100</v>
       </c>
       <c r="Q11">
-        <v>-87665630</v>
+        <v>-128700000</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12">
+        <v>-65</v>
+      </c>
+      <c r="Q12">
+        <v>-87665630</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>64</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>3577000</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>23305796</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>3577000</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>0.09</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1478,15 +1475,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="8.25" style="1" bestFit="1" customWidth="1"/>
@@ -1515,7 +1512,7 @@
         <v>78</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
         <v>79</v>
@@ -1530,218 +1527,94 @@
         <v>75</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F2">
-        <v>6000000</v>
+        <v>45000000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3">
-        <v>8970000</v>
+        <v>97</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3422072.94</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4">
-        <v>12000000</v>
+        <v>97</v>
+      </c>
+      <c r="G4">
+        <v>13177691.439999999</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5">
-        <v>-3060593.78</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6">
-        <v>9000000</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7">
-        <v>500000</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8">
-        <v>1000000</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9">
-        <v>4339428.0999999996</v>
-      </c>
-      <c r="G9">
-        <v>508240.76</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7CD6D4-70B6-49E8-B874-5FC4D6769482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A70899-B96B-494D-93B8-31198E438DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SWAP_huat_202007013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IC2008空头收益互换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,6 +477,10 @@
   </si>
   <si>
     <t>SSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_20200713</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1071,7 +1071,7 @@
         <v>0.09</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -1231,13 +1231,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
         <v>106</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>107</v>
-      </c>
-      <c r="D8" t="s">
-        <v>108</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1249,13 +1249,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" t="s">
         <v>110</v>
-      </c>
-      <c r="N8" t="s">
-        <v>111</v>
       </c>
       <c r="O8" t="s">
         <v>26</v>
@@ -1395,13 +1395,13 @@
         <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>52</v>
@@ -1422,7 +1422,7 @@
         <v>55</v>
       </c>
       <c r="O12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P12">
         <v>-65</v>
@@ -1512,7 +1512,7 @@
         <v>78</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
         <v>79</v>
@@ -1527,36 +1527,36 @@
         <v>75</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="F2">
         <v>45000000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1564,25 +1564,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="3">
         <v>3422072.94</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1590,28 +1590,28 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4">
         <v>13177691.439999999</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K4">
         <v>2</v>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A70899-B96B-494D-93B8-31198E438DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6542B2-C4A3-4919-8DBA-B8018EDD4A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -922,7 +922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -1477,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6542B2-C4A3-4919-8DBA-B8018EDD4A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE69F586-2856-4469-BC96-42FD2BC6A5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SWAP_huat_20200629</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>913_o_huat_20200629</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SWAP_huat_20200630</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,14 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SWAP_huat_20200707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PrdCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,47 +380,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>202007270001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200727T152246</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>918</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200727T110549</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>929</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200727</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200729</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202007270002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200727T112845</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>917</t>
+    <t>SWAP_zx_EQSWAP5779DEF20200529-20200728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000905空头收益互换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008030001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>914</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -444,43 +416,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200730</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202007270004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200728</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWAP_zx_EQSWAP5779DEF20200529-20200728</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000905空头收益互换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200728</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000905</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWAP_huat_20200713</t>
+    <t>20200803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008040001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008050001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_20200629_HTSC-MSLH13-Q19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_20200630_HTSC-MSLH13-Q20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_20200707_HTSC-MSLH13-Q21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_20200713_HTSC-MSLH13-Q22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200708</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2014A2-72F2-459D-8409-EBB38C0BE405}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -861,7 +861,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>20</v>
@@ -902,13 +902,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>231910000</v>
+        <v>292855804</v>
       </c>
     </row>
   </sheetData>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -971,7 +971,7 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
         <v>39</v>
@@ -1071,7 +1071,7 @@
         <v>0.09</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -1231,13 +1231,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1249,13 +1249,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
         <v>26</v>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
@@ -1289,6 +1289,9 @@
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="K9">
+        <v>4.7399999999999998E-2</v>
+      </c>
       <c r="L9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1305,21 +1308,21 @@
         <v>-100</v>
       </c>
       <c r="Q9">
-        <v>-111456000</v>
+        <v>-111289400</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" t="s">
         <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1330,8 +1333,11 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="K10">
+        <v>4.7399999999999998E-2</v>
+      </c>
       <c r="L10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>52</v>
@@ -1351,10 +1357,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -1371,8 +1377,11 @@
       <c r="H11">
         <v>0</v>
       </c>
+      <c r="K11">
+        <v>4.7399999999999998E-2</v>
+      </c>
       <c r="L11" s="1" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>52</v>
@@ -1387,21 +1396,21 @@
         <v>-100</v>
       </c>
       <c r="Q11">
-        <v>-128700000</v>
+        <v>-127745000</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1412,8 +1421,11 @@
       <c r="H12">
         <v>0</v>
       </c>
+      <c r="K12">
+        <v>4.7399999999999998E-2</v>
+      </c>
       <c r="L12" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>52</v>
@@ -1422,7 +1434,7 @@
         <v>55</v>
       </c>
       <c r="O12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P12">
         <v>-65</v>
@@ -1433,19 +1445,19 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1463,7 +1475,7 @@
         <v>0.09</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1477,143 +1489,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="2" max="2" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2">
+        <v>-5470000</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F2">
-        <v>45000000</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
+      <c r="I2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3">
+        <v>-5016000.1399999997</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3422072.94</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3">
+      <c r="I3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G4">
-        <v>13177691.439999999</v>
+        <v>-733862.56</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4">
+        <v>106</v>
+      </c>
+      <c r="I4">
         <v>2</v>
       </c>
     </row>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE69F586-2856-4469-BC96-42FD2BC6A5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B26226-E4B5-40C6-9342-2F0C329281D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
     <sheet name="holding" sheetId="1" r:id="rId2"/>
     <sheet name="dwitems" sheetId="3" r:id="rId3"/>
+    <sheet name="todo_list" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>921_c_sw_9497</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>929_o_zx_9DEF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -404,11 +401,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>202008030001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>914</t>
+    <t>202008040001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1203</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -420,15 +417,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202008040001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1203</t>
+    <t>20200807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008050001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1205</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -436,51 +433,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200803</t>
+    <t>20200805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_20200629_HTSC-MSLH13-Q19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_20200630_HTSC-MSLH13-Q20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_20200707_HTSC-MSLH13-Q21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_20200713_HTSC-MSLH13-Q22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200708</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申赎补beta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VitalDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨额赎回的货基需要卖出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008060001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxjt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1207</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20200807</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202008050001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWAP_huat_20200629_HTSC-MSLH13-Q19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWAP_huat_20200630_HTSC-MSLH13-Q20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWAP_huat_20200707_HTSC-MSLH13-Q21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWAP_huat_20200713_HTSC-MSLH13-Q22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200708</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2014A2-72F2-459D-8409-EBB38C0BE405}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -855,13 +876,13 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>20</v>
@@ -878,36 +899,28 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
-        <v>23400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5000000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="3">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+        <v>56</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>292855804</v>
       </c>
     </row>
@@ -922,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9:Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -962,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -971,34 +984,34 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
       <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
       <c r="Q1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
         <v>13</v>
@@ -1006,7 +1019,7 @@
     </row>
     <row r="2" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1018,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1053,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1071,7 +1084,7 @@
         <v>0.09</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -1088,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1123,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1146,16 +1159,16 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1167,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P6">
         <v>-2674.7550000000001</v>
@@ -1187,16 +1200,16 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1208,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" t="s">
         <v>48</v>
       </c>
-      <c r="N7" t="s">
-        <v>49</v>
-      </c>
       <c r="O7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P7">
         <v>-3454.7744118700002</v>
@@ -1228,16 +1241,16 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
         <v>86</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1249,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" t="s">
         <v>90</v>
       </c>
-      <c r="N8" t="s">
-        <v>91</v>
-      </c>
       <c r="O8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P8">
         <v>-7144.2860000600003</v>
@@ -1269,16 +1282,16 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1293,16 +1306,16 @@
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>55</v>
-      </c>
-      <c r="O9" t="s">
-        <v>56</v>
       </c>
       <c r="P9">
         <v>-100</v>
@@ -1313,16 +1326,16 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1337,16 +1350,16 @@
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" t="s">
         <v>55</v>
-      </c>
-      <c r="O10" t="s">
-        <v>56</v>
       </c>
       <c r="P10">
         <v>-100</v>
@@ -1357,16 +1370,16 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1381,16 +1394,16 @@
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" t="s">
         <v>55</v>
-      </c>
-      <c r="O11" t="s">
-        <v>56</v>
       </c>
       <c r="P11">
         <v>-100</v>
@@ -1401,16 +1414,16 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1425,16 +1438,16 @@
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" t="s">
         <v>79</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" t="s">
-        <v>80</v>
       </c>
       <c r="P12">
         <v>-65</v>
@@ -1445,19 +1458,19 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1475,7 +1488,7 @@
         <v>0.09</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1489,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1511,60 +1524,60 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="I1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2">
+        <v>-5016000.1399999997</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="G2">
-        <v>-5470000</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="I2">
         <v>4</v>
@@ -1572,22 +1585,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3">
+        <v>-410861.43</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="G3">
-        <v>-5016000.1399999997</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1595,25 +1608,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4">
-        <v>-733862.56</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
+      </c>
+      <c r="F4">
+        <v>-29400000</v>
       </c>
       <c r="I4">
         <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1621,4 +1634,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960AD245-7D09-48FA-9CF2-710EDF475B8B}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20200806</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20200806</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B26226-E4B5-40C6-9342-2F0C329281D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463C331F-C8E5-4537-A4DB-51598DB7FA17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,39 +401,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>202008040001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200807</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202008050001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200805</t>
+    <t>SWAP_huat_20200629_HTSC-MSLH13-Q19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_20200630_HTSC-MSLH13-Q20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_20200707_HTSC-MSLH13-Q21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_huat_20200713_HTSC-MSLH13-Q22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200708</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VitalDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008100001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -441,67 +449,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SWAP_huat_20200629_HTSC-MSLH13-Q19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWAP_huat_20200630_HTSC-MSLH13-Q20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWAP_huat_20200707_HTSC-MSLH13-Q21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWAP_huat_20200713_HTSC-MSLH13-Q22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200708</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申赎补beta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VitalDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨额赎回的货基需要卖出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202008060001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zxjt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200807</t>
+    <t>20200813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hait</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,7 +1237,7 @@
         <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
@@ -1329,7 +1281,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
@@ -1373,7 +1325,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -1394,7 +1346,7 @@
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>51</v>
@@ -1417,7 +1369,7 @@
         <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -1500,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1562,71 +1514,28 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2">
-        <v>-5016000.1399999997</v>
+        <v>102</v>
+      </c>
+      <c r="F2">
+        <v>8000000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3">
-        <v>-410861.43</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4">
-        <v>-29400000</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>114</v>
+      <c r="J2" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1638,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960AD245-7D09-48FA-9CF2-710EDF475B8B}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1654,47 +1563,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>20200806</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>20200806</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463C331F-C8E5-4537-A4DB-51598DB7FA17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA43EDD-9C61-4BE1-B740-C4A7493D7BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="1560" windowWidth="16080" windowHeight="20955" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,11 +433,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>202008100001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>918</t>
+    <t>812_m_zhaos_0362</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>813_m_huat_4060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>809_m_sw_1243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008130001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>917</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -445,7 +481,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200810</t>
+    <t>20200807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008130002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +505,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hait</t>
+    <t>20200814</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2014A2-72F2-459D-8409-EBB38C0BE405}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -876,6 +928,14 @@
         <v>292855804</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="3">
+        <v>12000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -885,10 +945,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1443,6 +1503,76 @@
         <v>63</v>
       </c>
     </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>4070000</v>
+      </c>
+      <c r="H14">
+        <v>24323936</v>
+      </c>
+      <c r="I14">
+        <v>4070000</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>16000000</v>
+      </c>
+      <c r="H15">
+        <v>39415566</v>
+      </c>
+      <c r="I15">
+        <v>16000000</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1452,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1514,28 +1644,48 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F2">
-        <v>8000000</v>
+        <v>14000000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>104</v>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3">
+        <v>2500000</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1550,7 +1700,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA43EDD-9C61-4BE1-B740-C4A7493D7BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBF8881-9C74-409C-90FD-97AD10F86A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1560" windowWidth="16080" windowHeight="20955" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="2730" windowWidth="16005" windowHeight="20955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,10 +433,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>812_m_zhaos_0362</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>813_m_huat_4060</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,26 +462,6 @@
   </si>
   <si>
     <t>512500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202008130001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>917</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200807</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200812</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -841,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2014A2-72F2-459D-8409-EBB38C0BE405}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -928,14 +904,6 @@
         <v>292855804</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="3">
-        <v>12000000</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -947,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1505,19 +1473,19 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" t="s">
         <v>101</v>
-      </c>
-      <c r="C14" t="s">
-        <v>102</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1535,18 +1503,18 @@
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -1570,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1582,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1644,47 +1612,24 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2">
+        <v>2500000</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F2">
-        <v>14000000</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="I2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3">
-        <v>2500000</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3">
         <v>2</v>
       </c>
     </row>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBF8881-9C74-409C-90FD-97AD10F86A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9FEEA9-E0CA-46FE-A95F-F889EAD5C899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="2730" windowWidth="16005" windowHeight="20955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="134">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,6 +482,94 @@
   </si>
   <si>
     <t>20200814</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601产品未配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index为IF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>602产品未配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投下层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新期货接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商华泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603永安转鲁证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>605未配置 0.3beta 保证金不超20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>607未配置, 人工T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>608未配置，0.25beta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200817</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008170001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200819</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008170002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200817151431</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>917</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200817</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918换渠道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1550,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1633,6 +1721,55 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3">
+        <v>5160000</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4">
+        <v>-3660603.92</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960AD245-7D09-48FA-9CF2-710EDF475B8B}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1673,6 +1810,57 @@
         <v>81</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9FEEA9-E0CA-46FE-A95F-F889EAD5C899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9CFE19-D4D4-4B48-9410-81CC5E2B339A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="142">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +570,38 @@
   </si>
   <si>
     <t>918换渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918停日内，买货基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>912，不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008180001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200818165738</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>808</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1638,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1770,6 +1802,35 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5">
+        <v>36900000</v>
+      </c>
+      <c r="G5">
+        <v>-1220000</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1779,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960AD245-7D09-48FA-9CF2-710EDF475B8B}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1861,6 +1922,16 @@
         <v>133</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9CFE19-D4D4-4B48-9410-81CC5E2B339A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923A3BF1-6E3F-4F6D-868F-68B9F0119870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14220" yWindow="5145" windowWidth="16440" windowHeight="20910" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="148">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,10 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>招商华泰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>603永安转鲁证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,10 +573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>912，不</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>202008180001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,11 +589,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008180002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200818165738</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>20200821</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>808</t>
+    <t>络町数据核对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6系列搁置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>912，列出，由杨维护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1670,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1755,22 +1779,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3">
         <v>5160000</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1778,25 +1802,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="G4">
         <v>-3660603.92</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -1804,31 +1828,54 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="F5">
         <v>36900000</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6">
         <v>-1220000</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
+      <c r="H6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1840,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960AD245-7D09-48FA-9CF2-710EDF475B8B}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1851,7 +1898,7 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1878,7 +1925,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1899,37 +1946,42 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923A3BF1-6E3F-4F6D-868F-68B9F0119870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2309D589-F83C-49CF-B340-6F06055F9E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14220" yWindow="5145" windowWidth="16440" windowHeight="20910" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="139">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,11 +465,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>202008130002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7121</t>
+    <t>新期货接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008180001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200818165738</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -477,59 +485,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200813</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200814</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>601产品未配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index为IF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>602产品未配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投下层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新期货接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>603永安转鲁证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>605未配置 0.3beta 保证金不超20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>607未配置, 人工T0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>608未配置，0.25beta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200817</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202008170001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>914</t>
+    <t>20200818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008180002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200818165738</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>912，列出，由杨维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008190001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200819153235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1203</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -537,19 +537,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>20200818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：贴水过深，产品不建仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>803 db 数据4点后准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>918 and 808 暂不建仓，等待建仓（贴水过深）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008190002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200819180947</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>919</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>20200819</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>202008170002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200817151431</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>917</t>
+    <t>20200821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008190003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -557,75 +589,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200817</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200820</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>918换渠道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>918停日内，买货基</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202008180001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200818165738</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200818</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>808</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202008180002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200818165738</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>808</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200818</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200821</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>络町数据核对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6系列搁置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>912，列出，由杨维护</t>
+    <t>919资金划转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -681,6 +645,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1060,7 +1025,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1697,7 +1662,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1707,7 +1672,8 @@
     <col min="3" max="3" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
@@ -1756,22 +1722,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2">
+        <v>36900000</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2">
-        <v>2500000</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -1779,22 +1748,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3">
-        <v>5160000</v>
+        <v>118</v>
+      </c>
+      <c r="G3">
+        <v>-1220000</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1802,51 +1774,51 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4">
+        <v>10000000</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4">
-        <v>-3660603.92</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5">
+        <v>1000000</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5">
-        <v>36900000</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -1854,25 +1826,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G6">
-        <v>-1220000</v>
+        <v>-16810909.25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1887,10 +1859,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960AD245-7D09-48FA-9CF2-710EDF475B8B}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1920,68 +1892,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>145</v>
+      <c r="A3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" t="s">
-        <v>113</v>
-      </c>
+      <c r="A4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" t="s">
-        <v>115</v>
+      <c r="D5" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2309D589-F83C-49CF-B340-6F06055F9E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444E4837-1F25-4DCA-9802-68890E705252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="130">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,26 +433,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>813_m_huat_4060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>security</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200630</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>809_m_sw_1243</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,27 +449,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新期货接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200820</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202008180001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200818165738</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200818</t>
+    <t>状态：贴水过深，产品不建仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易计划部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易计划当前状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精细管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开仓需发邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用户资金过多，等升水时减仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通户有270万不交易，信用户为人工T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTA,申赎直接到期货户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTA,申赎直接到期货户，200万对期指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投下层，现金对期指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多头与空头平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部团队，只管理划款，由杨维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不建仓，等待建仓（贴水过深）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道转移资金（3400万）未建仓，等待建仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202008210001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200821145101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -493,103 +525,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>202008180002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200818165738</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>808</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200818</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200821</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>912，列出，由杨维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202008190001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200819153235</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200818</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200824</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态：贴水过深，产品不建仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>803 db 数据4点后准确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>918 and 808 暂不建仓，等待建仓（贴水过深）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202008190002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200819180947</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>919</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200819</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200821</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202008190003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>919资金划转</t>
+    <t>20200826</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益互换，需整理付款日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未满仓，等待加仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db(1207) 与hait(908,918,1211) 数据4点后准确，与武老师同步数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰普通户在打新股，不交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清仓，有涨停票，资金都买了货基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清仓状态，等待划款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,12 +581,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -637,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -645,7 +615,8 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -929,7 +900,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1010,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>292855804</v>
+        <v>287855804</v>
       </c>
     </row>
   </sheetData>
@@ -1022,10 +993,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1545,7 +1516,7 @@
         <v>-87665630</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -1582,72 +1553,37 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
         <v>99</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>101</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4070000</v>
+        <v>16000000</v>
       </c>
       <c r="H14">
-        <v>24323936</v>
+        <v>39415566</v>
       </c>
       <c r="I14">
-        <v>4070000</v>
+        <v>16000000</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" t="s">
         <v>101</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>16000000</v>
-      </c>
-      <c r="H15">
-        <v>39415566</v>
-      </c>
-      <c r="I15">
-        <v>16000000</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1659,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1722,131 +1658,27 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2">
-        <v>36900000</v>
+        <v>118</v>
+      </c>
+      <c r="G2">
+        <v>-300000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="I2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3">
-        <v>-1220000</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4">
-        <v>10000000</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5">
-        <v>1000000</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6">
-        <v>-16810909.25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6">
         <v>2</v>
       </c>
     </row>
@@ -1859,16 +1691,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960AD245-7D09-48FA-9CF2-710EDF475B8B}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -1891,36 +1723,178 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D2" t="s">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>709</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>808</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>809</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>812</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>813</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>816</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>912</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>913</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>914</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>918</v>
+      </c>
+      <c r="B20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D5" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>138</v>
+    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>918</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>919</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>925</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>926</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>928</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>1203</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1205</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444E4837-1F25-4DCA-9802-68890E705252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCD4833-BB7E-4EE3-B4D7-E29FF7DEE995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="148">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,14 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IC2009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IC2009空头收益互换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20200629</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,10 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中证500期货2009合约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>913_o_huat_20200629</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,10 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IC2009空头收益互换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20200630</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,18 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IC2008空头收益互换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中证500期货2008合约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20200611</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,26 +385,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SWAP_huat_20200713_HTSC-MSLH13-Q22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20200708</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VitalDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,27 +405,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态：贴水过深，产品不建仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易计划部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易计划当前状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>精细管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开仓需发邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信用户资金过多，等升水时减仓</t>
+    <t>华泰普通户在打新股，不交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部团队，只管理划款，由杨维护，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>708_m_yh_0366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500信用户人工T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪市线下打新凑市值，6500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴水变深，减仓准备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8成(0.72)仓位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北证券，4点后下载数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据融券调cpslongamt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -477,83 +469,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已清仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工T0</t>
+  </si>
+  <si>
+    <t>人工T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益互换，需整理付款日期及还款依据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据融券调cpslongamt;信用户资金过多，等待贴水浅时，平融券，开空头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投下层，现金对期指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪市线下打新凑市值，6500；赎回到账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrdCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证500期货2012合约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202009040001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200904141158</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200909</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未建仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赎回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一周二清盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202009040002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200904153329</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200909</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场外收益互换发生交易？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还融券，取钱，更改目标持仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC2012空头收益互换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减至三成仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融券期指套利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0仓位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>805的赎回从五矿出   五矿这个户以后不用了</t>
+  </si>
+  <si>
     <t>CTA,申赎直接到期货户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CTA,申赎直接到期货户，200万对期指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工T0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投下层，现金对期指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多头与空头平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部团队，只管理划款，由杨维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂不建仓，等待建仓（贴水过深）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道转移资金（3400万）未建仓，等待建仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200821</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202008210001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200821145101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>808</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200826</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益互换，需整理付款日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未满仓，等待加仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db(1207) 与hait(908,918,1211) 数据4点后准确，与武老师同步数据源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰普通户在打新股，不交易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清仓，有涨停票，资金都买了货基</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清仓状态，等待划款</t>
+    <t>插入，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +635,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,19 +650,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -615,8 +685,8 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -897,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2014A2-72F2-459D-8409-EBB38C0BE405}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -942,7 +1012,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>20</v>
@@ -975,13 +1045,21 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>287855804</v>
+        <v>151714200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5000000</v>
       </c>
     </row>
   </sheetData>
@@ -993,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1044,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
         <v>38</v>
@@ -1144,7 +1222,7 @@
         <v>0.09</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -1304,13 +1382,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1322,13 +1400,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
         <v>25</v>
@@ -1342,16 +1420,16 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1366,36 +1444,36 @@
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="P9">
-        <v>-100</v>
+        <v>-83</v>
       </c>
       <c r="Q9">
-        <v>-111289400</v>
+        <v>-106827308</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1410,36 +1488,36 @@
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="N10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O10" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="P10">
-        <v>-100</v>
+        <v>-82</v>
       </c>
       <c r="Q10">
-        <v>-113023400</v>
+        <v>-106104392</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1454,136 +1532,92 @@
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="N11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11">
+        <v>-15</v>
+      </c>
+      <c r="Q11">
+        <v>-16953510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P11">
-        <v>-100</v>
-      </c>
-      <c r="Q11">
-        <v>-127745000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>3577000</v>
+      </c>
+      <c r="H12">
+        <v>23305796</v>
+      </c>
+      <c r="I12">
+        <v>3577000</v>
+      </c>
+      <c r="K12">
+        <v>0.09</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>4.7399999999999998E-2</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12">
-        <v>-65</v>
-      </c>
-      <c r="Q12">
-        <v>-87665630</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3577000</v>
+        <v>7667500</v>
       </c>
       <c r="H13">
-        <v>23305796</v>
+        <v>20526887</v>
       </c>
       <c r="I13">
-        <v>3577000</v>
+        <v>7667500</v>
       </c>
       <c r="K13">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>16000000</v>
-      </c>
-      <c r="H14">
-        <v>39415566</v>
-      </c>
-      <c r="I14">
-        <v>16000000</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1595,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1620,65 +1654,91 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G2">
-        <v>-300000</v>
+        <v>-5949649.4800000004</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3">
+        <v>-6785946.7699999996</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
     </row>
@@ -1691,210 +1751,322 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960AD245-7D09-48FA-9CF2-710EDF475B8B}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="36.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>703</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>708</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>709</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>715</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>805</v>
+      </c>
+      <c r="C8" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>807</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>803</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>805</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>808</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>809</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>812</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>813</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>816</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>907</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>912</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C18" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>913</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>914</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>915</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>918</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>919</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>925</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C24" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>926</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>709</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C25" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>928</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>808</v>
-      </c>
-      <c r="B12" s="7" t="s">
+    <row r="27" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>929</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>1203</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1205</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1207</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1211</v>
+      </c>
+      <c r="C31" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>809</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>812</v>
-      </c>
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>813</v>
-      </c>
-      <c r="B15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>816</v>
-      </c>
-      <c r="B16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>912</v>
-      </c>
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>913</v>
-      </c>
-      <c r="B18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>914</v>
-      </c>
-      <c r="B19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>918</v>
-      </c>
-      <c r="B20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>918</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>919</v>
-      </c>
-      <c r="B22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>925</v>
-      </c>
-      <c r="B23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>926</v>
-      </c>
-      <c r="B24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>928</v>
-      </c>
-      <c r="B25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>1203</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1205</v>
-      </c>
-      <c r="B27" t="s">
-        <v>113</v>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCD4833-BB7E-4EE3-B4D7-E29FF7DEE995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6031B9-9841-444E-8FDD-4B9D5B4D185F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="180">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,14 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SWAP_huat_20200707_HTSC-MSLH13-Q21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200708</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,10 +405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外部团队，只管理划款，由杨维护，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -437,10 +425,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8成(0.72)仓位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东北证券，4点后下载数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,10 +437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据融券调cpslongamt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>插入，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,14 +532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赎回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一周二清盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>202009040002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,14 +556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>场外收益互换发生交易？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还融券，取钱，更改目标持仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IC2012空头收益互换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,17 +564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>融券期指套利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0仓位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>805的赎回从五矿出   五矿这个户以后不用了</t>
-  </si>
-  <si>
     <t>CTA,申赎直接到期货户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -624,6 +577,179 @@
   </si>
   <si>
     <t>插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202009070001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200907101506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新产品仓位目标：</t>
+  </si>
+  <si>
+    <t>IC2010贴水20%以上时，中性/500/1000仓位目标分别为7成/3成/6成；</t>
+  </si>
+  <si>
+    <t>IC2010贴水25%以上时，所有产品仓位都减至3成</t>
+  </si>
+  <si>
+    <t>20200907T164200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投下层的产品如920 不写在交易计划上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投宽墨8，不写在交易计划上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200909</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维持当前仓位，向0.27过渡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融券期指套利，0仓位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202009080001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200908162435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202009080002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200908162435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200909</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需更新场外数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202009080003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200908163800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202009080004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202009080005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200908163835</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200908163945</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>708</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等赎回通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出140万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多头套利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -970,7 +1096,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1051,12 +1177,12 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>151714200</v>
+        <v>110630000</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G5" s="3">
         <v>5000000</v>
@@ -1071,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1429,7 +1555,7 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1447,13 +1573,13 @@
         <v>51</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N9" t="s">
         <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="P9">
         <v>-83</v>
@@ -1473,7 +1599,7 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1491,133 +1617,89 @@
         <v>63</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N10" t="s">
         <v>52</v>
       </c>
       <c r="O10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="P10">
-        <v>-82</v>
+        <v>-47</v>
       </c>
       <c r="Q10">
-        <v>-106104392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>-60815932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>3577000</v>
+      </c>
+      <c r="H11">
+        <v>23305796</v>
+      </c>
+      <c r="I11">
+        <v>3577000</v>
+      </c>
+      <c r="K11">
+        <v>0.09</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
         <v>86</v>
       </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11">
+      <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>4.7399999999999998E-2</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N11" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" t="s">
-        <v>119</v>
-      </c>
-      <c r="P11">
-        <v>-15</v>
-      </c>
-      <c r="Q11">
-        <v>-16953510</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3577000</v>
+        <v>15100000</v>
       </c>
       <c r="H12">
-        <v>23305796</v>
+        <v>50358500</v>
       </c>
       <c r="I12">
-        <v>3577000</v>
+        <v>15100000</v>
       </c>
       <c r="K12">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>7667500</v>
-      </c>
-      <c r="H13">
-        <v>20526887</v>
-      </c>
-      <c r="I13">
-        <v>7667500</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1629,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1692,53 +1774,235 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <v>-5949649.4800000004</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G3">
         <v>-6785946.7699999996</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I3">
+      <c r="B4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4">
+        <v>-875129.06</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <v>-4722458.03</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6">
+        <v>1605900</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7">
+        <v>12625000</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8">
+        <v>-700000</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9">
+        <v>-2000000</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10">
+        <v>-20177405.149999999</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10">
         <v>2</v>
       </c>
     </row>
@@ -1751,10 +2015,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960AD245-7D09-48FA-9CF2-710EDF475B8B}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1767,13 +2031,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1781,7 +2045,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1789,28 +2053,32 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3"/>
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>703</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>708</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="C5" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1818,10 +2086,10 @@
         <v>709</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1829,7 +2097,7 @@
         <v>715</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1837,7 +2105,7 @@
         <v>805</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1845,7 +2113,7 @@
         <v>807</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1853,16 +2121,13 @@
         <v>803</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>805</v>
       </c>
-      <c r="B11" t="s">
-        <v>143</v>
-      </c>
       <c r="C11"/>
     </row>
     <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1870,18 +2135,15 @@
         <v>808</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>809</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1889,10 +2151,10 @@
         <v>812</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1900,7 +2162,7 @@
         <v>813</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1908,10 +2170,10 @@
         <v>816</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1919,10 +2181,10 @@
         <v>907</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1930,21 +2192,18 @@
         <v>912</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>913</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1952,7 +2211,7 @@
         <v>914</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1960,7 +2219,7 @@
         <v>915</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1968,7 +2227,7 @@
         <v>918</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1976,70 +2235,68 @@
         <v>919</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>925</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>105</v>
+        <v>920</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>1203</v>
+        <v>929</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>129</v>
+        <v>163</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1205</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="B29" s="5"/>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2047,10 +2304,10 @@
         <v>1207</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2058,15 +2315,33 @@
         <v>1211</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6031B9-9841-444E-8FDD-4B9D5B4D185F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51B749F-7DC8-4F17-996D-6F5A01AB23E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="179">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,15 +496,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>202009040001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200904141158</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1203</t>
+    <t>插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未建仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC2012空头收益互换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减至三成仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTA,申赎直接到期货户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202009070001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200907101506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>920</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -512,7 +548,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200903</t>
+    <t>20200907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新产品仓位目标：</t>
+  </si>
+  <si>
+    <t>IC2010贴水20%以上时，中性/500/1000仓位目标分别为7成/3成/6成；</t>
+  </si>
+  <si>
+    <t>IC2010贴水25%以上时，所有产品仓位都减至3成</t>
+  </si>
+  <si>
+    <t>20200907T164200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投下层的产品如920 不写在交易计划上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投宽墨8，不写在交易计划上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -520,27 +589,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>插入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未建仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202009040002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200904153329</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>805</t>
+    <t>20200910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维持当前仓位，向0.27过渡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融券期指套利，0仓位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202009080001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200908162435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202009080002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200908162435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200909</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需更新场外数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202009080003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200908163800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202009080004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202009080005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200908163835</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>702</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -548,7 +685,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20200904</t>
+    <t>20200908163945</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>708</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等赎回通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出140万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多头套利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202009090001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200909100756</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -556,47 +721,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IC2012空头收益互换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减至三成仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CTA,申赎直接到期货户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202009070001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200907101506</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>920</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200907</t>
+    <t>20200914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202009090002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200909102210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>808</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -604,152 +741,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最新产品仓位目标：</t>
-  </si>
-  <si>
-    <t>IC2010贴水20%以上时，中性/500/1000仓位目标分别为7成/3成/6成；</t>
-  </si>
-  <si>
-    <t>IC2010贴水25%以上时，所有产品仓位都减至3成</t>
-  </si>
-  <si>
-    <t>20200907T164200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投下层的产品如920 不写在交易计划上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投宽墨8，不写在交易计划上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>705</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200909</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200910</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维持当前仓位，向0.27过渡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>融券期指套利，0仓位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202009080001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200908162435</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202009080002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200908162435</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>705</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200909</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200910</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需更新场外数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202009080003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200908163800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200910</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200911</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202009080004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202009080005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200908163835</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>702</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200908163945</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>708</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等赎回通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出140万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多头套利</t>
+    <t>收益互换划款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1200,7 +1196,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1555,7 +1551,7 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1599,7 +1595,7 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1713,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1774,51 +1770,51 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G2">
-        <v>-5949649.4800000004</v>
+        <v>-875129.06</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G3">
-        <v>-6785946.7699999996</v>
+        <v>-4722458.03</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -1826,155 +1822,155 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4">
-        <v>-875129.06</v>
+        <v>149</v>
+      </c>
+      <c r="F4">
+        <v>1605900</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5">
-        <v>-4722458.03</v>
+      <c r="F5">
+        <v>12625000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6">
+        <v>-700000</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6">
-        <v>1605900</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7">
-        <v>12625000</v>
+        <v>156</v>
+      </c>
+      <c r="G7">
+        <v>-2000000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G8">
-        <v>-700000</v>
+        <v>-20177405.149999999</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9">
+        <v>-128017550</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G9">
-        <v>-2000000</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -1982,25 +1978,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="G10">
+        <v>-1100000</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10">
-        <v>-20177405.149999999</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -2017,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960AD245-7D09-48FA-9CF2-710EDF475B8B}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2053,10 +2049,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2064,10 +2060,10 @@
         <v>703</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2075,7 +2071,7 @@
         <v>708</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>94</v>
@@ -2086,10 +2082,10 @@
         <v>709</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2097,7 +2093,7 @@
         <v>715</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2135,7 +2131,7 @@
         <v>808</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2143,7 +2139,7 @@
         <v>809</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2192,7 +2188,7 @@
         <v>912</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>92</v>
@@ -2202,6 +2198,9 @@
       <c r="A19" s="5">
         <v>913</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="C19" s="5" t="s">
         <v>107</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>914</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2243,7 +2242,7 @@
         <v>920</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2284,10 +2283,10 @@
         <v>929</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2304,7 +2303,7 @@
         <v>1207</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
         <v>97</v>
@@ -2320,7 +2319,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
         <v>96</v>
@@ -2328,20 +2327,20 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_patch.xlsx
+++ b/data/data_patch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29BDADC-8299-4D02-A423-99C851B00482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD76C328-7F96-4886-A4BE-7A94A8C10A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="2" r:id="rId1"/>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="215">
   <si>
     <t>510500</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,102 +326,188 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>精细管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰普通户在打新股，不交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部团队，只管理划款，由杨维护，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>708_m_yh_0366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴水变深，减仓准备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通户有270万不交易，信用户为人工T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工T0</t>
+  </si>
+  <si>
+    <t>人工T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益互换，需整理付款日期及还款依据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投下层，现金对期指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrdCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证500期货2012合约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IC2012空头收益互换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTA,申赎直接到期货户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新产品仓位目标：</t>
+  </si>
+  <si>
+    <t>IC2010贴水20%以上时，中性/500/1000仓位目标分别为7成/3成/6成；</t>
+  </si>
+  <si>
+    <t>20200907T164200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投宽墨8，不写在交易计划上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融券期指套利，0仓位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWAP_zx_EQSWAP5779DEF20200529</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360万信用户人工T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除中信渠道中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投下层的产品如710、920 不写在交易计划上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>809_m_sw_1243</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>512500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精细管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华泰普通户在打新股，不交易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部团队，只管理划款，由杨维护，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>708_m_yh_0366</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴水变深，减仓准备。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>todo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通户有270万不交易，信用户为人工T0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已清仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工T0</t>
-  </si>
-  <si>
-    <t>人工T0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益互换，需整理付款日期及还款依据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工T0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投下层，现金对期指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrdCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IC2012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中证500期货2012合约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未建仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IC2012空头收益互换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CTA,申赎直接到期货户</t>
+    <t>security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0赎回，需要反馈给市场部，然后等通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;17% EI 加股票平09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;17% EI 09展期至10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持股票仓位不超过7成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>808_m_huat_4391</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多头套利，融券的30%仓位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTA，保壳状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -428,124 +515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最新产品仓位目标：</t>
-  </si>
-  <si>
-    <t>IC2010贴水20%以上时，中性/500/1000仓位目标分别为7成/3成/6成；</t>
-  </si>
-  <si>
-    <t>20200907T164200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投宽墨8，不写在交易计划上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>融券期指套利，0仓位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWAP_zx_EQSWAP5779DEF20200529</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>360万信用户人工T0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维持当前仓位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去除中信渠道中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投下层的产品如710、920 不写在交易计划上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200914</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>510500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>security</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国盛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三成仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0赎回，需要反馈给市场部，然后等通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;17% EI 加股票平09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;17% EI 09展期至10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保持股票仓位不超过7成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>808_m_huat_4391</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多头套利，融券的30%仓位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>807</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CTA，保壳状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>704</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>申赎款放到华泰户里买货基，2beta，超额计提</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,10 +567,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>清盘，100万保壳放托管不动20200923</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>申购款注意买货基</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -614,22 +579,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新产品 周五开放，非超额计提，挂钩期指。（资金来自于702、7022），712正式运行时间等通知，留足期货户的钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有期指状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清仓，投712</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中建投户5500万，打新门槛，未建仓；对冲策略加仓至9400万(20200925:0.5075)，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对冲策略仓位加仓至10850万(20200925:0.4939)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -643,62 +596,6 @@
   </si>
   <si>
     <t>917</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中建投5500万打新门槛，换户到广发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信用户500转至期货户，以备期货户资金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202009300001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200930105139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200930</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20201013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202009300002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200930154829</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20200930</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20201012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -722,19 +619,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20201009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202010090001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20201009100025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>921</t>
+    <t>根据融券市值调整仓位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部为期指多头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用管了 yz说的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发5500万，打新门槛，未建仓；对冲策略加仓至9400万(20200925:0.5075)，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逸舟说了申购投下层不用管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法需改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型需要升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apama登陆超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>712建仓时间为再到账时间，apama登陆帐号绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45alpha，（2、杨：8111仓位已经改为0.45alpha    不另行通知的话可视为永久改动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工T0，申赎默认不管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融券T0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清仓，已退出，保壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群里说不用管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日内产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划款要盘前出金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202011110001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201111094905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202011120001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201112144405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中性产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净敞口超过目标持仓7%以上，检查异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202011130001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201113095558</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202011130002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201113101126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202011130003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201113105951</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>709</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -742,47 +843,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20201014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202010090002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202010090003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20201009100344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>905</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202010090004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20201009101141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>707</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202010090005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20201009101334</t>
+    <t>202011130004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>928</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202011130005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201113144048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202011130006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201113144822</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -790,63 +875,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>202010090006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202010090007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20201009150422</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>711</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20201012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20201013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202010090008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20201009152356</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202010090009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20201009153534</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>807</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202010090010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下层</t>
+    <t>929已清仓股票全部，开了期指多头套利。 周一把929的资金全部转到另一个中信证券普通户，买货基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>917预计11/16巨额赎回53%，之后这个产品投下层运作。下周一安排清仓股票期指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用户已开好，将华泰普通户的钱全部转到信用户；804无法担保品划转，明天从普通户转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>906的期货端从国君换到西部</t>
+  </si>
+  <si>
+    <t>906</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -928,6 +972,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1213,7 +1260,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1294,12 +1341,12 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>110630000</v>
+        <v>55330000</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G5" s="3">
         <v>5000000</v>
@@ -1314,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1508,7 +1555,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1537,11 +1584,11 @@
       <c r="O5" t="s">
         <v>24</v>
       </c>
-      <c r="P5">
-        <v>-10449.68</v>
+      <c r="P5" s="13">
+        <v>-10189.50982153</v>
       </c>
       <c r="Q5">
-        <v>-63428306</v>
+        <v>-62629074.883400001</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -1555,7 +1602,7 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1573,19 +1620,19 @@
         <v>43</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N6" t="s">
         <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P6">
-        <v>-83</v>
+        <v>-18</v>
       </c>
       <c r="Q6">
-        <v>-106827308</v>
+        <v>-23167368</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1599,7 +1646,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1617,13 +1664,13 @@
         <v>55</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s">
         <v>44</v>
       </c>
       <c r="O7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P7">
         <v>-47</v>
@@ -1669,77 +1716,77 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>15100000</v>
+        <v>5250000</v>
       </c>
       <c r="H9">
-        <v>50358500</v>
+        <v>36444946</v>
       </c>
       <c r="I9">
-        <v>15100000</v>
+        <v>5250000</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>122</v>
+      <c r="A10" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5250000</v>
+        <v>1730100</v>
       </c>
       <c r="H10">
-        <v>36444946</v>
+        <v>10036249</v>
       </c>
       <c r="I10">
-        <v>5250000</v>
+        <v>1730100</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
@@ -1757,54 +1804,19 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1730100</v>
+        <v>5080000</v>
       </c>
       <c r="H11">
-        <v>10036249</v>
+        <v>28126940</v>
       </c>
       <c r="I11">
-        <v>1730100</v>
+        <v>5080000</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>5080000</v>
-      </c>
-      <c r="H12">
-        <v>28126940</v>
-      </c>
-      <c r="I12">
-        <v>5080000</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1816,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD860049-16CE-4C3D-B3E2-91CFFEF4F92F}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1839,7 +1851,7 @@
     <col min="13" max="13" width="25.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -1876,323 +1888,222 @@
       <c r="L1" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="G2">
-        <v>-24363132.559999999</v>
+        <v>-761904.76</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="F3">
-        <v>18020000</v>
+        <v>8000000</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4">
+        <v>-6051414.1500000004</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4">
-        <v>1000000</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G5">
-        <v>-16897138.440000001</v>
+        <v>-10000000</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>177</v>
       </c>
       <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="G6">
-        <v>-1619889.3</v>
+        <v>-4009168.61</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G7">
-        <v>-10253575.640000001</v>
+        <v>-31608542.449999999</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="F8">
-        <v>15000000</v>
+        <v>3000000</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="G9">
-        <v>-20731170.43</v>
+        <v>-19600000</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G10">
-        <v>-30000000</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11">
-        <v>-7576632.1799999997</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12">
-        <v>1700000</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13">
-        <v>-498550.45</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M9">
+    <sortCondition ref="C1:C9"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2201,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960AD245-7D09-48FA-9CF2-710EDF475B8B}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2217,13 +2128,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2231,23 +2142,21 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>141</v>
-      </c>
+      <c r="C3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2255,7 +2164,7 @@
         <v>7022</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2263,425 +2172,528 @@
         <v>703</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" t="s">
-        <v>146</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>708</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
-        <v>104</v>
+      <c r="A9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>709</v>
+      <c r="A10" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>710</v>
-      </c>
-      <c r="C11" t="s">
-        <v>203</v>
+        <v>708</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12"/>
+      <c r="A12" s="1">
+        <v>709</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>803</v>
-      </c>
-      <c r="C14"/>
+      <c r="A14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
+        <v>715</v>
+      </c>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>803</v>
+      </c>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>805</v>
       </c>
-      <c r="C15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>808</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>809</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>812</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>83</v>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
-        <v>816</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>125</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>809</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>907</v>
+      <c r="A22" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>909</v>
+        <v>812</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>912</v>
+        <v>813</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>913</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>816</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
-        <v>914</v>
-      </c>
+      <c r="A26" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="11"/>
       <c r="C26" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>915</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="11"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="29" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
-        <v>925</v>
-      </c>
-      <c r="C33" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>914</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>926</v>
+        <v>915</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
-        <v>928</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>85</v>
+      <c r="A35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
+        <v>918</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>919</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>920</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>922</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>925</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>926</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>928</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
         <v>929</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="B43" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>1205</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="B44" s="5"/>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>1207</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="B45" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>1211</v>
       </c>
-      <c r="B39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C45"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C46"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>142</v>
+      <c r="C47" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" t="s">
         <v>100</v>
       </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>1101</v>
+      </c>
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>1110</v>
+      </c>
+      <c r="B67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>1106</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>11181</v>
+      </c>
+      <c r="B69" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>1101</v>
-      </c>
-      <c r="B58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>1110</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>11182</v>
+      </c>
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>1106</v>
-      </c>
-      <c r="B60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>11181</v>
-      </c>
-      <c r="B61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>11182</v>
-      </c>
-      <c r="B62" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69" t="s">
-        <v>120</v>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
